--- a/medicine/Psychotrope/Saint-péray_(AOC)/Saint-péray_(AOC).xlsx
+++ b/medicine/Psychotrope/Saint-péray_(AOC)/Saint-péray_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-p%C3%A9ray_(AOC)</t>
+          <t>Saint-péray_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le saint-péray[2] est un vin d'appellation d'origine contrôlée produit sur les communes de Saint-Péray et Toulaud, sur la rive droite du Rhône, en face de la ville de Valence.
+Le saint-péray est un vin d'appellation d'origine contrôlée produit sur les communes de Saint-Péray et Toulaud, sur la rive droite du Rhône, en face de la ville de Valence.
 Il s'agit d'une appellation du vignoble de la vallée du Rhône septentrionale, dans le département de l'Ardèche, au sud de l'aire de production du cornas au nord.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-p%C3%A9ray_(AOC)</t>
+          <t>Saint-péray_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,18 +527,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Un vaste domaine viticole appartenant à une famille gallo-romaine de la gens Atius prospéra entre Rhône et la montagne de Crussol. Après les invasions barbares, les survivants se réfugièrent dans les ruines de la « villa rustica » et ce hameau prit le nom d'Atacium.
-Moyen Âge
-Ici le vignoble est attesté depuis 936 où la grande abbaye du Vivarais, abbaye Saint-Chaffre, cite les vignes de S. Petri d’Atiacum (nom qui évoluera vers Ay).
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un vaste domaine viticole appartenant à une famille gallo-romaine de la gens Atius prospéra entre Rhône et la montagne de Crussol. Après les invasions barbares, les survivants se réfugièrent dans les ruines de la « villa rustica » et ce hameau prit le nom d'Atacium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ici le vignoble est attesté depuis 936 où la grande abbaye du Vivarais, abbaye Saint-Chaffre, cite les vignes de S. Petri d’Atiacum (nom qui évoluera vers Ay).
 Au Moyen Âge, il devint le siège d'un prieuré dédié à saint Pierre et, dès lors, le village fut baptisé « Sanctus Petrus Atiacum ». Ce nom va évoluer au cours des siècles vers Saint-Pierre d'Ay qui devint Saint-Péray. 
 Le Cartulaire de Saint-Chaffre, en 936, mentionne la donation à cette abbaye d'une villa et de ses vignes sise sous le castrum de Crussol. Plus tard, au XIIe siècle, le Cartulaire de Bourg-lès-Valence, indique que les comtes de Crussol : Giraud Bastet, son épouse Agnès et son frère Guillaume, donnent 50 livres à l'abbaye de Saint-Estève, située à l'extrémité de la montagne de Crussol, et des vignes à l'église de S.Petri Ay.
-Période moderne
-Dès la fin du Moyen Âge et durant toute la Renaissance, Saint-Péray suivit l'histoire de la famille de Crussol, jusqu'à ce que ses descendants devinrent comtes puis duc d'Uzès et ce duché sera élevé au rang de premier duché de France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès la fin du Moyen Âge et durant toute la Renaissance, Saint-Péray suivit l'histoire de la famille de Crussol, jusqu'à ce que ses descendants devinrent comtes puis duc d'Uzès et ce duché sera élevé au rang de premier duché de France.
 En 1762, l'abbé Dode, curé de la paroisse, note que le village produit des céréales, en faible quantité, mais beaucoup de topinambours « et des vins blancs et rouges. La partie regardant le midi produit le meilleur des vins blancs du pays ». Au XVIIIe siècle, ces vins étaient déjà estimés de haute qualité puisque, sous la Révolution, Saint-Péray se débaptisa pour s'appeler fièrement « Péray Vin Blanc ».
-Période contemporaine
-La première prise de mousse à Saint Péray fut réalisée au château de Beauregard, en 1829, par la Maison Faure sur cent barriques : en 1825, le négociant Alexandre Faure fit venir un caviste champenois et lui demanda d’élaborer un mousseux[3]. La maison Faure devint fournisseur officiel des cours d’Autriche, d’Angleterre et du Wurtemberg. À ses royales ou impériale prédilections s’ajoute l’engouement d’un grand musicien. Une lettre autographe de Richard Wagner, datée de Bayreuth, en 1877, passe commande de 100 bouteilles de vins mousseux.
-Les vinificateurs de Saint-Péray furent les premiers après les Champenois à maîtriser la prise de mousse de leurs vins par la « méthode traditionnelle »[4]. Un document établit avec certitude la date de cet évènement : une lettre datée du 11 mars 1829 et écrite par Louis Faure à son neveu en tournée d'affaires à Édimbourg. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première prise de mousse à Saint Péray fut réalisée au château de Beauregard, en 1829, par la Maison Faure sur cent barriques : en 1825, le négociant Alexandre Faure fit venir un caviste champenois et lui demanda d’élaborer un mousseux. La maison Faure devint fournisseur officiel des cours d’Autriche, d’Angleterre et du Wurtemberg. À ses royales ou impériale prédilections s’ajoute l’engouement d’un grand musicien. Une lettre autographe de Richard Wagner, datée de Bayreuth, en 1877, passe commande de 100 bouteilles de vins mousseux.
+Les vinificateurs de Saint-Péray furent les premiers après les Champenois à maîtriser la prise de mousse de leurs vins par la « méthode traditionnelle ». Un document établit avec certitude la date de cet évènement : une lettre datée du 11 mars 1829 et écrite par Louis Faure à son neveu en tournée d'affaires à Édimbourg. 
 « Tu apprendras sans doute avec plaisir que notre opération à champagniser les cent barriques vin blanc de Saint-Péray se poursuit très bien et nous doutons pas de la réussite... Ce premier essai de prise de mousse a été effectué dans les caves du château de Beauregerd et nous avons donc aussi notre Hautvillers : cette fierté s'ajoute à celle d'être la première localité viticole après la Champagne à produire en France des vins mousseux. »
 En l'absence de toute législation, la Maison Faure Père &amp; fils commercialisa ses cuvées sous le nom de « Champagne Saint-Péray », leurs successeurs MM. Giraud Louis et cie se contenteront de « Saint-Péray. Grand Mousseux ».
 Les Faure obtinrent vers 1850 le brevet de « Fournisseur officiel de la Cour d'Autriche » puis en 1867 celui de la « Cour d'Angleterre ». Dès 1843, des lettres de commandes attestent que les négociants de la commune fournissaient également les caves de la Cour de S. M. le roi de Wurtemberg.
@@ -534,39 +656,146 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au pied de la colline de Crussol, lieu de passage entre la montagne ardéchoise et la plaine de Valence, le village est traversé par le Mialan, un affluent du Rhône.
-Orographie
-La colline s'étire sur trois kilomètres dans une orientation nord / sud en ligne de crêtes assez régulière dont l’altitude passe progressivement de 306 à 406 mètres. Transversalement, c'est un massif dissymétrique : vers l’est, une haute falaise calcaire, surplombant des éboulis, domine la vallée du Rhône, tandis que vers l’ouest, la pente s’abaisse moins brutalement jusqu'au Mialan.
-Géologie
-La Montagne de Crussol sépare en deux ce terroir. Les terrasses qui jouxtent le Rhône sur les flancs est et ouest de la Montagne sont constituées d’un sol de lœss et de calcaire anguleux. Les autres sont sur un socle de granit porphyroïde avec couvert d’éboulis et d’arènes granitiques où le quartz reste intact et d’argile de décomposition en provenance des feldspaths.
-Climatologie
-Ce terroir viticole bénéficie d'un climat tempéré dont la principale caractéristique est le vent fréquent qui souffle le long du couloir rhodanien. Ce vent, lorsqu'il vient du nord, est baptisé mistral  et a pour effet d'assécher l'air et d'apporter du beau temps et de la fraîcheur en été, mais une impression de froid glacial en hiver. Lorsqu'il provient du sud, il annonce généralement l'arrivée de perturbations orageuses ; il s'appelle alors « vent du midi » ou « vent des fous » car, pour certaines personnes, il rend l'atmosphère pénible à supporter, surtout en été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colline s'étire sur trois kilomètres dans une orientation nord / sud en ligne de crêtes assez régulière dont l’altitude passe progressivement de 306 à 406 mètres. Transversalement, c'est un massif dissymétrique : vers l’est, une haute falaise calcaire, surplombant des éboulis, domine la vallée du Rhône, tandis que vers l’ouest, la pente s’abaisse moins brutalement jusqu'au Mialan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Montagne de Crussol sépare en deux ce terroir. Les terrasses qui jouxtent le Rhône sur les flancs est et ouest de la Montagne sont constituées d’un sol de lœss et de calcaire anguleux. Les autres sont sur un socle de granit porphyroïde avec couvert d’éboulis et d’arènes granitiques où le quartz reste intact et d’argile de décomposition en provenance des feldspaths.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole bénéficie d'un climat tempéré dont la principale caractéristique est le vent fréquent qui souffle le long du couloir rhodanien. Ce vent, lorsqu'il vient du nord, est baptisé mistral  et a pour effet d'assécher l'air et d'apporter du beau temps et de la fraîcheur en été, mais une impression de froid glacial en hiver. Lorsqu'il provient du sud, il annonce généralement l'arrivée de perturbations orageuses ; il s'appelle alors « vent du midi » ou « vent des fous » car, pour certaines personnes, il rend l'atmosphère pénible à supporter, surtout en été.
 À partir de cette latitude, l'influence du climat méditerranéen se fait directement sentir. L'ensoleillement annuel est élevé (environ 2400 heures à Valence, estimation de Météofrance) . Les étés y sont chauds et secs. La température moyenne du mois de juillet est de 22 °C (Montélimar 23 °C). Les hivers froids sans excès s'inscrivent plutôt dans un climat de type semi-continental dégradé. La température moyenne du mois le plus froid (janvier) est ainsi de 4 °C (5°à Montélimar 40 km plus au sud).
 La pluviométrie annuelle est modérée : environ 900 mm par an étalés sur 85 jours de précipitations supérieur à 1 mm (Montélimar). Les pluies sont particulièrement importantes à la fin de l'été (particulièrement en septembre à cause de l'effet cévenol ou orage cévenol qui déverse des trombes d'eau).
 Source : (fr) Données de Tournon 1961 à 1990
@@ -574,89 +803,383 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Le bourg de Saint-Péray, à l’ombre du château historique de Crussol, fait face à Valence sur l’autre rive du Rhône. Il a donné son nom à l’appellation qui s’étend sur Toulaud, une autre commune ardéchoise.
-Encépagement
-Cette appellation assemble marsanne et roussanne tant pour ses vins tranquilles que mousseux.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bourg de Saint-Péray, à l’ombre du château historique de Crussol, fait face à Valence sur l’autre rive du Rhône. Il a donné son nom à l’appellation qui s’étend sur Toulaud, une autre commune ardéchoise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette appellation assemble marsanne et roussanne tant pour ses vins tranquilles que mousseux.
 Comparaison de l'encépagement de l'AOC saint-péray avec les autres appellations locales des côtes-du-rhône septentrionales
 Dans les décrets d'appellation, une division est faite entre le cépages principaux (indiqué par "M"), les variétés supplémentaires (indiqué par "S") et celles autorisées (indiqué par "(A)").
-Méthodes culturales et réglementaires
-Son vignoble couvre 51 ha et donne 1 897 hl de vin blanc dont le rendement est fixé à 45 hl / ha.
-Vinification et élevage
-Vinification en blanc
-Dans la vinification en blanc la fermentation se déroule en dehors de tout contact avec les parties solides de la vendange (pépins, peaux du raisin, rafles). Le but de cette vinification est de faire ressortir le maximum des arômes contenus d'abord dans le raisin, ensuite en cours de fermentation, enfin lors du vieillissement[13].
-L'extraction du jus et sa séparation des parties solides peuvent être précédées par un éraflage, un foulage et un égouttage, pour passer ensuite au pressurage. Mais ces phases sont évitées par nombre de vinificateurs pour éviter l'augmentation des bourbes[13]. Le choix se porte sur une extraction progressive du jus puis un débourbage qui permet d'éliminer toutes particules en suspension. Là aussi, encore plus que pour une vinification en rouge, s'impose la maîtrise des températures lors de la fermentation alcoolique. Elle se déroule entre 18 et 20° et dure entre 8 et 30 jours selon le type de vin désiré[14].
-Vin mousseux
-La vinification des vins effervescents a pour but de permettre d'embouteiller un vin dont les sucres et les levures vont déclencher une seconde fermentation en bouteilles. Celle-ci et son bouchon doivent pouvoir résister au gaz carbonique qui se forme sous pression. C'est lui au débouchage qui provoquera la formation de mousse[15].
-On utilise un vin tranquille auquel est ajoutée une liqueur de tirage, constituée de levures, d'adjuvants de remuage (pour faciliter la récupération et l'éjection du dépôt au dégorgement) et de sucre (de 15 à 24 g/l) selon la pression désirée finalement. La bouteille est rebouchée hermétiquement et déposée sur des clayettes afin que les levures transforment le sucre en alcool et en gaz carbonique[16]. 
-Terroir et vins
-Dominé par le château de Crussol, ce terroir, où le vignoble a colonisé des coteaux au relief tourmenté, est composé de sols granitiques couverts de limon, lœss et débris calcaires.  La marsanne[17] et un peu de roussanne permettent l’élaboration d’un vin mousseux et d’un vin tranquille qui se vêtent d’une robe jaune aux reflets d’or pâle et dont le nez embaume les fleurs fraîchement cueillies.
-Structure des exploitations
-Il existe 31 exploitations réparties en :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son vignoble couvre 51 ha et donne 1 897 hl de vin blanc dont le rendement est fixé à 45 hl / ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Vinification en blanc</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la vinification en blanc la fermentation se déroule en dehors de tout contact avec les parties solides de la vendange (pépins, peaux du raisin, rafles). Le but de cette vinification est de faire ressortir le maximum des arômes contenus d'abord dans le raisin, ensuite en cours de fermentation, enfin lors du vieillissement.
+L'extraction du jus et sa séparation des parties solides peuvent être précédées par un éraflage, un foulage et un égouttage, pour passer ensuite au pressurage. Mais ces phases sont évitées par nombre de vinificateurs pour éviter l'augmentation des bourbes. Le choix se porte sur une extraction progressive du jus puis un débourbage qui permet d'éliminer toutes particules en suspension. Là aussi, encore plus que pour une vinification en rouge, s'impose la maîtrise des températures lors de la fermentation alcoolique. Elle se déroule entre 18 et 20° et dure entre 8 et 30 jours selon le type de vin désiré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Vin mousseux</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vinification des vins effervescents a pour but de permettre d'embouteiller un vin dont les sucres et les levures vont déclencher une seconde fermentation en bouteilles. Celle-ci et son bouchon doivent pouvoir résister au gaz carbonique qui se forme sous pression. C'est lui au débouchage qui provoquera la formation de mousse.
+On utilise un vin tranquille auquel est ajoutée une liqueur de tirage, constituée de levures, d'adjuvants de remuage (pour faciliter la récupération et l'éjection du dépôt au dégorgement) et de sucre (de 15 à 24 g/l) selon la pression désirée finalement. La bouteille est rebouchée hermétiquement et déposée sur des clayettes afin que les levures transforment le sucre en alcool et en gaz carbonique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dominé par le château de Crussol, ce terroir, où le vignoble a colonisé des coteaux au relief tourmenté, est composé de sols granitiques couverts de limon, lœss et débris calcaires.  La marsanne et un peu de roussanne permettent l’élaboration d’un vin mousseux et d’un vin tranquille qui se vêtent d’une robe jaune aux reflets d’or pâle et dont le nez embaume les fleurs fraîchement cueillies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Il existe 31 exploitations réparties en :
 1 cave coopérative regroupant 5 producteurs
 8 négociants, propriétaires
-22 vignerons indépendants
-Type de vins et gastronomie
-Effervescent ou tranquille, ces deux vins sont caractérisés par une belle robe d’or jaune à or pâle. Le vin tranquille est sec ; il est issu d'un assemblage de 96 % de marsanne et 4 % de roussanne, ce qui lui confère un nez très floral où domine l’arôme de violette. Il est parfait sur les hors d’œuvre et les poissons blancs. L’effervescent, à base de marsanne uniquement, se sert en apéritif ou dessert. C’est un vin léger et sec, très vif grâce à une bonne acidité. Ces deux types de vins sont mis en bouteille après 2 à 3 ans passés en cuve, généralement des pièces de 225 litres. 
+22 vignerons indépendants</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effervescent ou tranquille, ces deux vins sont caractérisés par une belle robe d’or jaune à or pâle. Le vin tranquille est sec ; il est issu d'un assemblage de 96 % de marsanne et 4 % de roussanne, ce qui lui confère un nez très floral où domine l’arôme de violette. Il est parfait sur les hors d’œuvre et les poissons blancs. L’effervescent, à base de marsanne uniquement, se sert en apéritif ou dessert. C’est un vin léger et sec, très vif grâce à une bonne acidité. Ces deux types de vins sont mis en bouteille après 2 à 3 ans passés en cuve, généralement des pièces de 225 litres. 
 La bouche du mousseux est vive, légère et rafraîchissante, celle du vin tranquille tonique et d’un bel équilibre. Toutes ces deux vins aromatiques sont marqués par des notes florales et de fruits secs où dominent la châtaigne ou l'abricot.
-Millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Millésimes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Commercialisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Fête et marché des vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dégustation chez un producteur
@@ -667,36 +1190,38 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Saint-péray_(AOC)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-p%C3%A9ray_(AOC)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Wagner fut un amoureux inconditionnel de ce vin. Il écrivit de Bayreuth : 
 « Messieurs, je vous prie de me faire parvenir, dès que possible, les cent bouteilles de Saint-Péray mousseux fin, sec, que vous m'avez proposées ; je garderai également le vin doux reçu précédemment. En raison de quoi, je compte sur un délai de paiement accommodant pour le nouvel envoi. »
 De la musique à la poésie, il suffit d'un pas pour découvrir Marc-Antoine Desaugiers, chansonnier et vaudevilliste, qui rimait au début du XIXe siècle :  
-« À vous je m'adresse, Mesdames,Je vais chanter le Saint-Péray.Il est surnommé vin des femmes,C'est vous dire s'il est parfait,La violette qu'il exhaleEn rend le goût délicieux[18]. »
+« À vous je m'adresse, Mesdames,Je vais chanter le Saint-Péray.Il est surnommé vin des femmes,C'est vous dire s'il est parfait,La violette qu'il exhaleEn rend le goût délicieux. »
 </t>
         </is>
       </c>
